--- a/chats/593967760813@c.us.xlsx
+++ b/chats/593967760813@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Fecha</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>que tal</t>
+  </si>
+  <si>
+    <t>16-11-2021 10:38</t>
+  </si>
+  <si>
+    <t>fdcerdfc</t>
   </si>
 </sst>
 </file>
@@ -399,7 +405,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -418,8 +424,16 @@
         <v>3</v>
       </c>
     </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
--- a/chats/593967760813@c.us.xlsx
+++ b/chats/593967760813@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
   <si>
     <t>Fecha</t>
   </si>
@@ -29,6 +29,93 @@
   </si>
   <si>
     <t>fdcerdfc</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:18</t>
+  </si>
+  <si>
+    <t>F3f2f</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:19</t>
+  </si>
+  <si>
+    <t>Fefeg</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:22</t>
+  </si>
+  <si>
+    <t>Fwf3f3g</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:23</t>
+  </si>
+  <si>
+    <t>Tv</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:25</t>
+  </si>
+  <si>
+    <t>F3g2g</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:30</t>
+  </si>
+  <si>
+    <t>Ugug</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:35</t>
+  </si>
+  <si>
+    <t>Th</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:41</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>😁</t>
+  </si>
+  <si>
+    <t>21-11-2021 07:59</t>
+  </si>
+  <si>
+    <t>Ve</t>
+  </si>
+  <si>
+    <t>21-11-2021 08:23</t>
+  </si>
+  <si>
+    <t>Fjfkf</t>
+  </si>
+  <si>
+    <t>21-11-2021 09:36</t>
+  </si>
+  <si>
+    <t>Xnx</t>
+  </si>
+  <si>
+    <t>21-11-2021 10:03</t>
+  </si>
+  <si>
+    <t>Xwxec</t>
+  </si>
+  <si>
+    <t>21-11-2021 10:30</t>
+  </si>
+  <si>
+    <t>Nxf</t>
+  </si>
+  <si>
+    <t>21-11-2021 11:53</t>
+  </si>
+  <si>
+    <t>X3f3g</t>
   </si>
 </sst>
 </file>
@@ -405,7 +492,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B18"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -432,6 +519,126 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/chats/593967760813@c.us.xlsx
+++ b/chats/593967760813@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Fecha</t>
   </si>
@@ -116,6 +116,15 @@
   </si>
   <si>
     <t>X3f3g</t>
+  </si>
+  <si>
+    <t>24-11-2021 10:44</t>
+  </si>
+  <si>
+    <t>Wcevevr</t>
+  </si>
+  <si>
+    <t>Fbrh</t>
   </si>
 </sst>
 </file>
@@ -492,7 +501,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B20"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -639,6 +648,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" t="s">
+        <v>37</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/chats/593967760813@c.us.xlsx
+++ b/chats/593967760813@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
   <si>
     <t>Fecha</t>
   </si>
@@ -125,6 +125,12 @@
   </si>
   <si>
     <t>Fbrh</t>
+  </si>
+  <si>
+    <t>25-11-2021 09:39</t>
+  </si>
+  <si>
+    <t>Xjxf</t>
   </si>
 </sst>
 </file>
@@ -501,7 +507,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B21"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -664,6 +670,14 @@
         <v>37</v>
       </c>
     </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>39</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/chats/593967760813@c.us.xlsx
+++ b/chats/593967760813@c.us.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>Fecha</t>
   </si>
@@ -131,6 +131,12 @@
   </si>
   <si>
     <t>Xjxf</t>
+  </si>
+  <si>
+    <t>26-11-2021 01:11</t>
+  </si>
+  <si>
+    <t>Kfkd</t>
   </si>
 </sst>
 </file>
@@ -507,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:B22"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -678,6 +684,14 @@
         <v>39</v>
       </c>
     </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>40</v>
+      </c>
+      <c r="B22" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
